--- a/data/acoes_dados.xlsx
+++ b/data/acoes_dados.xlsx
@@ -553,17 +553,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>22,45%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8,60</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -608,7 +608,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>72.140.000.000</t>
+          <t>72.320.000.000</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -650,17 +650,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24,04</t>
+          <t>23,98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-3,20%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>4.524.291.820</t>
+          <t>4.516.159.480</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8,20</t>
+          <t>8,19</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>30,89%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>6.552.595.726</t>
+          <t>6.555.514.476</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -941,17 +941,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9,08</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>6.480.774.127</t>
+          <t>6.508.398.910</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1038,17 +1038,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>5,20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>8,40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>36.561.722.029</t>
+          <t>36.692.270.468</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">

--- a/data/acoes_dados.xlsx
+++ b/data/acoes_dados.xlsx
@@ -441,72 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>valor_atual</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>min_52cw</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>max_52cw</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>dividend_yield</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>valorizacao_12m</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>p/l</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>margem_bruta</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>margem_liquida</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>roe</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>roic</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cagr_receitas_5anos</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>cagr_lucros_5anos</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>patrimonio_liquido</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>divida_bruta</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -538,78 +538,68 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36,16</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>28,58</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>36,16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+          <t>BBSE3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>7,93</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>21,63%</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>8,62</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>-%</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>-%</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>83,37%</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>-%</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>-%</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>18,84%</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>10.061.717.000</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>72.320.000.000</t>
-        </is>
+      <c r="O2" t="n">
+        <v>10061717000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>72320000000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -635,78 +625,68 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>33,32</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>28,97</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>36,26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
+          <t>LEVE3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33.32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36.26</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>23,98</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>3,38%</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>5,92</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>29,31%</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>17,58%</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>68,70%</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>31,93%</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>10,86%</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>21,19%</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>1.109.849.000</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>905.058.000</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>4.516.159.480</t>
-        </is>
+      <c r="O3" t="n">
+        <v>1109849000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4516159480</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -732,78 +712,68 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22,46</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13,92</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22,71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+          <t>CURY3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22.46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>8,19</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>31,65%</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>11,26</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>38,15%</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>17,12%</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>63,72%</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>29,07%</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>25,68%</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>34,75%</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>913.453.000</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.080.738.000</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>6.555.514.476</t>
-        </is>
+      <c r="O4" t="n">
+        <v>913453000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6555514476</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -829,78 +799,68 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12,15</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7,53</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14,49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+          <t>PLPL3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.49</v>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>13,45%</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>9,22</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>33,41%</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>12,34%</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>43,21%</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>27,42%</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>-%</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>-%</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>623.151.000</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>369.845.000</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2.481.710.400</t>
-        </is>
+      <c r="O5" t="n">
+        <v>623151000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2481710400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -926,78 +886,68 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11,78</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>9,43</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12,29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+          <t>ODPV3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>9,04</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>9,99%</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>12,38</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>30,61%</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>23,81%</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>42,57%</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>36,02%</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>5,88%</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>13,04%</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>1.234.901.000</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>6.508.398.910</t>
-        </is>
+      <c r="O6" t="n">
+        <v>1234901000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6508398910</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1023,78 +973,68 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>44,97</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>38,15</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46,61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+          <t>EGIE3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>44.97</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>46.61</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>5,20</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>13,33%</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>8,40</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>55,50%</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>41,09%</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>39,51%</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>18,49%</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>4,09%</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>13,56%</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>11.061.451.000</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>21.262.808.000</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>36.692.270.468</t>
-        </is>
+      <c r="O7" t="n">
+        <v>11061451000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>36692270468</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>

--- a/data/acoes_dados.xlsx
+++ b/data/acoes_dados.xlsx
@@ -542,28 +542,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.16</v>
+        <v>36.14</v>
       </c>
       <c r="D2" t="n">
         <v>28.58</v>
       </c>
       <c r="E2" t="n">
-        <v>36.16</v>
+        <v>36.14</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21,63%</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>8,62</t>
-        </is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8.619999999999999</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -599,7 +597,7 @@
         <v>10061717000</v>
       </c>
       <c r="P2" t="n">
-        <v>72320000000</v>
+        <v>72280000000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -629,7 +627,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.32</v>
+        <v>33.38</v>
       </c>
       <c r="D3" t="n">
         <v>28.97</v>
@@ -639,18 +637,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>23,98</t>
+          <t>23,94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5.93</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -686,7 +682,7 @@
         <v>1109849000</v>
       </c>
       <c r="P3" t="n">
-        <v>4516159480</v>
+        <v>4524291820</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -734,10 +730,8 @@
           <t>31,65%</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>11,26</t>
-        </is>
+      <c r="H4" t="n">
+        <v>11.26</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -821,29 +815,27 @@
           <t>13,45%</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9,22</t>
-        </is>
+      <c r="H5" t="n">
+        <v>8.4</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>32,77%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -890,7 +882,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.78</v>
+        <v>11.73</v>
       </c>
       <c r="D6" t="n">
         <v>9.43</v>
@@ -900,18 +892,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>9,08</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>12,38</t>
-        </is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12.33</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -947,7 +937,7 @@
         <v>1234901000</v>
       </c>
       <c r="P6" t="n">
-        <v>6508398910</v>
+        <v>6480774127</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -977,7 +967,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44.97</v>
+        <v>44.9</v>
       </c>
       <c r="D7" t="n">
         <v>38.15</v>
@@ -992,13 +982,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13,33%</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>8,40</t>
-        </is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8.380000000000001</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1034,7 +1022,7 @@
         <v>11061451000</v>
       </c>
       <c r="P7" t="n">
-        <v>36692270468</v>
+        <v>36635155526</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>

--- a/data/acoes_dados.xlsx
+++ b/data/acoes_dados.xlsx
@@ -436,97 +436,97 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>nome</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ticker</t>
+          <t>Ticker</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>valor_atual</t>
+          <t>Valor Atual</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>min_52cw</t>
+          <t>Min 52 Semanas</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_52cw</t>
+          <t>Max 52 Semanas</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dividend_yield</t>
+          <t>Dividend Yield</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>valorizacao_12m</t>
+          <t>Valorizacao 12 Meses</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>p/l</t>
+          <t>P/L</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>margem_bruta</t>
+          <t>Margem Bruta</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>margem_liquida</t>
+          <t>Margem Líquida</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>roe</t>
+          <t>ROE</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>roic</t>
+          <t>ROIC</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cagr_receitas_5anos</t>
+          <t>CAGR Receitas 5 Anos</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>cagr_lucros_5anos</t>
+          <t>CAGR Lucros 5 Anos</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>patrimonio_liquido</t>
+          <t>Patrimônio Líquido</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>valor_de_mercado</t>
+          <t>Valor de Mercado</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>setor</t>
+          <t>Setor</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>subsetor</t>
+          <t>Subsetor</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>segmento</t>
+          <t>Segmento</t>
         </is>
       </c>
     </row>

--- a/data/acoes_dados.xlsx
+++ b/data/acoes_dados.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nome</t>
+          <t>Empresa</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BB SEGURIDADE</t>
+          <t>Bb Seguridade</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -542,62 +542,38 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36.14</v>
+        <v>36.16</v>
       </c>
       <c r="D2" t="n">
         <v>28.58</v>
       </c>
       <c r="E2" t="n">
-        <v>36.14</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21,56%</t>
-        </is>
+        <v>36.16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0793</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.2049</v>
       </c>
       <c r="H2" t="n">
         <v>8.619999999999999</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-%</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>-%</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>83,37%</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-%</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-%</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>18,84%</t>
-        </is>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>0.8337</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>0.1884</v>
       </c>
       <c r="O2" t="n">
         <v>10061717000</v>
       </c>
       <c r="P2" t="n">
-        <v>72280000000</v>
+        <v>72320000000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -618,7 +594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAHLE-METAL LEVE</t>
+          <t>Mahle-Metal Leve</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -627,7 +603,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.38</v>
+        <v>33.95</v>
       </c>
       <c r="D3" t="n">
         <v>28.97</v>
@@ -635,54 +611,38 @@
       <c r="E3" t="n">
         <v>36.26</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23,94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3,57%</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0.2354</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0156</v>
       </c>
       <c r="H3" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>29,31%</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>17,58%</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>68,70%</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>31,93%</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>21,19%</t>
-        </is>
+        <v>6.03</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2931</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1758</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3193</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1086</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2119</v>
       </c>
       <c r="O3" t="n">
         <v>1109849000</v>
       </c>
       <c r="P3" t="n">
-        <v>4524291820</v>
+        <v>4601549050</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -703,7 +663,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CURY CONSTRUTORA E INCORPORADORA S.A.</t>
+          <t>Cury Construtora E Incorporadora S.A.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -712,62 +672,46 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22.46</v>
+        <v>23.31</v>
       </c>
       <c r="D4" t="n">
         <v>13.92</v>
       </c>
       <c r="E4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8,19</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>31,65%</t>
-        </is>
+        <v>23.31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3992</v>
       </c>
       <c r="H4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>38,15%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>17,12%</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>63,72%</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>29,07%</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>25,68%</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>34,75%</t>
-        </is>
+        <v>11.69</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3815</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.1712</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6372</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2907</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2568</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3475</v>
       </c>
       <c r="O4" t="n">
         <v>913453000</v>
       </c>
       <c r="P4" t="n">
-        <v>6555514476</v>
+        <v>6803608301</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -788,7 +732,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PLANO &amp; PLANO DESENVOLVIMENTO IMOBILIÁRIO S.A.</t>
+          <t>Plano &amp; Plano Desenvolvimento Imobiliário S.A.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -797,7 +741,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.15</v>
+        <v>12.68</v>
       </c>
       <c r="D5" t="n">
         <v>7.53</v>
@@ -805,54 +749,32 @@
       <c r="E5" t="n">
         <v>14.49</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>13,45%</t>
-        </is>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>0.2323</v>
       </c>
       <c r="H5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>32,77%</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>12,35%</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>47,44%</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>30,63%</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-%</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>-%</t>
-        </is>
-      </c>
+        <v>8.76</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3277</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4744</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.3063</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>623151000</v>
       </c>
       <c r="P5" t="n">
-        <v>2481710400</v>
+        <v>2589966080</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -873,7 +795,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ODONTOPREV</t>
+          <t>Odontoprev</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -882,7 +804,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.73</v>
+        <v>11.71</v>
       </c>
       <c r="D6" t="n">
         <v>9.43</v>
@@ -890,54 +812,38 @@
       <c r="E6" t="n">
         <v>12.29</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9,08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>9,52%</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1206</v>
       </c>
       <c r="H6" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>30,61%</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>23,81%</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>42,57%</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>36,02%</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>13,04%</t>
-        </is>
+        <v>12.31</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3061</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2381</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4257</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.3602</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0588</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1304</v>
       </c>
       <c r="O6" t="n">
         <v>1234901000</v>
       </c>
       <c r="P6" t="n">
-        <v>6480774127</v>
+        <v>6469724214</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -958,7 +864,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENGIE BRASIL</t>
+          <t>Engie Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -967,7 +873,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44.9</v>
+        <v>45.8</v>
       </c>
       <c r="D7" t="n">
         <v>38.15</v>
@@ -975,54 +881,38 @@
       <c r="E7" t="n">
         <v>46.61</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5,20</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>13,16%</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1499</v>
       </c>
       <c r="H7" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>55,50%</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>41,09%</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>39,51%</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>18,49%</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>13,56%</t>
-        </is>
+        <v>8.550000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4109</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3951</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1849</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0409</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1356</v>
       </c>
       <c r="O7" t="n">
         <v>11061451000</v>
       </c>
       <c r="P7" t="n">
-        <v>36635155526</v>
+        <v>37369490492</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
